--- a/BurnUpChart/BurnUpChart.xlsx
+++ b/BurnUpChart/BurnUpChart.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/CMPS 115/vittles/BurnUpChart/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="60" windowWidth="13380" windowHeight="4340"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Sprint</t>
-  </si>
   <si>
     <t xml:space="preserve">Completed </t>
   </si>
@@ -34,6 +41,9 @@
   <si>
     <t xml:space="preserve">Estimated 
 Trajectory </t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -139,8 +149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Project 
-Total Points</c:v>
+                  <c:v>Project _x000d_Total Points</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -152,28 +161,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -185,28 +194,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1250</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -222,8 +231,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative 
-Completed</c:v>
+                  <c:v>Cumulative _x000d_Completed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -235,28 +243,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,28 +276,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300</c:v>
+                  <c:v>850.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -305,8 +313,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimated 
-Trajectory </c:v>
+                  <c:v>Estimated _x000d_Trajectory </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -331,28 +338,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +371,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -385,7 +392,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1500</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,14 +407,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135158400"/>
-        <c:axId val="135156864"/>
+        <c:axId val="-2143957744"/>
+        <c:axId val="-2143959360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135158400"/>
+        <c:axId val="-2143957744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7"/>
+          <c:max val="7.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -415,16 +422,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135156864"/>
+        <c:crossAx val="-2143959360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135156864"/>
+        <c:axId val="-2143959360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1600"/>
-          <c:min val="0"/>
+          <c:max val="1600.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -439,7 +446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135158400"/>
+        <c:crossAx val="-2143957744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -539,12 +546,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -574,12 +581,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -786,36 +793,36 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -832,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -851,7 +858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -870,80 +877,92 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1500</v>
       </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
       <c r="D5">
         <f t="shared" ref="D5:D9" si="0">D4 +C5</f>
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="E5" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1500</v>
       </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>1200</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="E7" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1500</v>
+        <v>1200</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E8" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E9">
         <v>1500</v>
@@ -962,7 +981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -974,7 +993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
